--- a/lin_R1_by_R2 (1 by 2.5)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)1000.xlsx
@@ -356,6 +356,152 @@
         <v>-0.07628947801536697</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -659,6 +805,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.07638924947484806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1258,152 @@
         <v>-0.07640364380133918</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,6 +1709,152 @@
         <v>-0.0762883195673007</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 2.5)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)1000.xlsx
@@ -66,142 +66,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.916665700498086</v>
+        <v>0.9166645213231418</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166651353941336</v>
+        <v>0.9166632665335819</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166642397669537</v>
+        <v>0.9166612778371316</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166628202991276</v>
+        <v>0.9166581259932486</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166605706082858</v>
+        <v>0.9166531307266191</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166570051238835</v>
+        <v>0.9166452139365731</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9166513543005894</v>
+        <v>0.9166326671070459</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9166423985719234</v>
+        <v>0.9166127828202686</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9166282052579077</v>
+        <v>0.916581271107082</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9166057117761354</v>
+        <v>0.9165313353328446</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9165700655387335</v>
+        <v>0.9164522098553786</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9165135789217624</v>
+        <v>0.9163268480902758</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9164240759204759</v>
+        <v>0.9161282726885552</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9162822790933055</v>
+        <v>0.915813826901396</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9160576864964957</v>
+        <v>0.9153161535147395</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9157020830194932</v>
+        <v>0.9145291217640984</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9151393714282084</v>
+        <v>0.913286080599238</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9142497420653063</v>
+        <v>0.911326769807671</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9128452944081091</v>
+        <v>0.9082482467199601</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9106331520047464</v>
+        <v>0.9034352226677131</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9071612743336032</v>
+        <v>0.8959687038684054</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9017428005564119</v>
+        <v>0.8845241609997732</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8933599413926089</v>
+        <v>0.8673008481174707</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8805645550856326</v>
+        <v>0.8420811337279843</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8614295853684529</v>
+        <v>0.8065888160622483</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.833669531401147</v>
+        <v>0.7593107176570993</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7951112646968791</v>
+        <v>0.7006827415407582</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7446427108390652</v>
+        <v>0.6339572697102749</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6834075613715799</v>
+        <v>0.5647151645586387</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6154039139132048</v>
+        <v>0.49880072892521843</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5465299117165909</v>
+        <v>0.44003554528793287</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.48227468104627264</v>
+        <v>0.38938525799752566</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42569608661897934</v>
+        <v>0.34581177764648174</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3770903906771473</v>
+        <v>0.30772794729706243</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3351356745183931</v>
+        <v>0.27395772045796046</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29829614809054683</v>
+        <v>0.24387496699303685</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26555806640935237</v>
+        <v>0.21710731247552184</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23639620471350226</v>
+        <v>0.19331264295562578</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.21045856223059714</v>
+        <v>0.172154584260472</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18740176427608343</v>
+        <v>0.15333221848606365</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1668969261905862</v>
+        <v>0.13658278932816884</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1486540185751327</v>
+        <v>0.1216744155882104</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13241914928981846</v>
+        <v>0.10840189560855129</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11796790474167261</v>
+        <v>0.09658357213665673</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10510168736628651</v>
+        <v>0.08605848105673546</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09364464438253366</v>
+        <v>0.07668387635825814</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0834409183813461</v>
@@ -212,142 +212,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61191022141594</v>
+        <v>-185.63078102482984</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72101859494924</v>
+        <v>-147.4523193300429</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53107242432085</v>
+        <v>-117.12623132357494</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63554228888694</v>
+        <v>-93.03754223085075</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12286031305713</v>
+        <v>-73.90344151066799</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47462220527652</v>
+        <v>-58.70496851252896</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48472669046623</v>
+        <v>-46.632749099246666</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19514621477541</v>
+        <v>-37.043893508585725</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84490847633583</v>
+        <v>-29.427760100876792</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82957185825653</v>
+        <v>-23.37876177332478</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.669036674445714</v>
+        <v>-18.57476685552053</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.981978042887135</v>
+        <v>-14.759944199550135</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.465538810100636</v>
+        <v>-11.7311387927701</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.879201034201575</v>
+        <v>-9.327052125797751</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.031976991517274</v>
+        <v>-7.419650697302876</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.772237317979629</v>
+        <v>-5.907344273728889</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.979634076662484</v>
+        <v>-4.709568954989109</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.558687603481001</v>
+        <v>-3.7624833628242302</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.433693617632146</v>
+        <v>-3.0155426977742383</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5446755651393023</v>
+        <v>-2.4287571823307474</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.844159496805102</v>
+        <v>-1.9704699758958164</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.29458688435907</v>
+        <v>-1.6155072801169328</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8662060921514372</v>
+        <v>-1.3435676245524757</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5352988132052159</v>
+        <v>-1.1377506260547023</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2826140416855898</v>
+        <v>-0.9832245964967155</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0919274916696406</v>
+        <v>-0.8662443505476484</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9487708926108382</v>
+        <v>-0.77397698321391</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8396146242090268</v>
+        <v>-0.6954961853596914</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7519917158822201</v>
+        <v>-0.6234607947977633</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6757734326776218</v>
+        <v>-0.5549907437502198</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6047986374605723</v>
+        <v>-0.4906390536076061</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5372855606414815</v>
+        <v>-0.432125981696058</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.47433357553370264</v>
+        <v>-0.38048595537217267</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.41761153646112126</v>
+        <v>-0.3355351349520693</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.36782440144979506</v>
+        <v>-0.2963636245804748</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.32452235576551597</v>
+        <v>-0.26201753620572554</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2867273978405432</v>
+        <v>-0.23179356951560037</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.25354372361247635</v>
+        <v>-0.20517499016613577</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22433143624558474</v>
+        <v>-0.18172053881076702</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19860144230431623</v>
+        <v>-0.1610368566208923</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17592541286515764</v>
+        <v>-0.1427808793213326</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1559234265738142</v>
+        <v>-0.12665491357032604</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13826529643096638</v>
+        <v>-0.11239979816085051</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12266424263810827</v>
+        <v>-0.09978961543504011</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1088704820996975</v>
+        <v>-0.08862720006221192</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0966662106171366</v>
+        <v>-0.07874026385623044</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08586127993719735</v>
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -517,142 +517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9166670243023034</v>
+        <v>0.916667460771919</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166672334762463</v>
+        <v>0.9166679252154707</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166675649874891</v>
+        <v>0.9166686612738124</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166680903795281</v>
+        <v>0.9166698277595475</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166689230248999</v>
+        <v>0.9166716762935065</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166702425661142</v>
+        <v>0.9166746054664333</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9166723336147524</v>
+        <v>0.916679246496249</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9166756469920484</v>
+        <v>0.9166865985255501</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9166808965542098</v>
+        <v>0.916698241898407</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9166892120614517</v>
+        <v>0.9167166732812417</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9167023799808743</v>
+        <v>0.9167458295164855</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9167232214229275</v>
+        <v>0.9167918996251475</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9167561818211447</v>
+        <v>0.9168645660221245</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9168082421710745</v>
+        <v>0.9169788573335697</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9168903047898729</v>
+        <v>0.9171577994920936</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9170192434439045</v>
+        <v>0.9174359079534601</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9172207881788981</v>
+        <v>0.9178629699611407</v>
       </c>
       <c r="R1" t="n">
-        <v>0.917533192924785</v>
+        <v>0.9185057542397761</v>
       </c>
       <c r="S1" t="n">
-        <v>0.918010818985958</v>
+        <v>0.9194404210896785</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9187243843952737</v>
+        <v>0.9207164396047666</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9197483879703178</v>
+        <v>0.9222460279490983</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9211112126195324</v>
+        <v>0.9235215527453047</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9226508723577975</v>
+        <v>0.9229943142517646</v>
       </c>
       <c r="X1" t="n">
-        <v>0.9236605559215862</v>
+        <v>0.9169699903605015</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.922144889160619</v>
+        <v>0.8983878223949646</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.9136049073863626</v>
+        <v>0.8574327508287116</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.8900266611574308</v>
+        <v>0.7872022873376423</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.8415655611779862</v>
+        <v>0.6925851452829117</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.7636989839523936</v>
+        <v>0.5908069381573557</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6651892145693843</v>
+        <v>0.4996041706725516</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5648037642561211</v>
+        <v>0.4272950337086187</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47829416169908073</v>
+        <v>0.3731638673737557</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.41118491502095433</v>
+        <v>0.3322517023091656</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.36115246222502423</v>
+        <v>0.29902011593678135</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.32280769528560543</v>
+        <v>0.2693422754647727</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29084337670125154</v>
+        <v>0.24142816564180478</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2617131240037164</v>
+        <v>0.21542850219557708</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23424828260742592</v>
+        <v>0.19196672245212523</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20888157147815556</v>
+        <v>0.17113084230410033</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18614014969300752</v>
+        <v>0.15259916873018878</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16595776621589042</v>
+        <v>0.13605939513141088</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14798496756743543</v>
+        <v>0.12129772952234412</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13194001462900656</v>
+        <v>0.108131166731111</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11762301089729951</v>
+        <v>0.09638932992701336</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1048539632359426</v>
+        <v>0.08591925354155602</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09346695474667768</v>
+        <v>0.07658418570201736</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08331359088333239</v>
@@ -663,142 +663,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6115745291279</v>
+        <v>-185.63028080777698</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72059598585665</v>
+        <v>-147.45168960222108</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.530540395902</v>
+        <v>-117.12543855945364</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63487251458145</v>
+        <v>-93.0365442323476</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12201713669876</v>
+        <v>-73.90218516962554</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47356074810895</v>
+        <v>-58.703387001821</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48339047283054</v>
+        <v>-46.63075835251071</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19346417159404</v>
+        <v>-37.041387820221495</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.842791218982974</v>
+        <v>-29.42460665008727</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.826907006730565</v>
+        <v>-23.374793856496265</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.66568305708499</v>
+        <v>-18.569775617706014</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.977758546037713</v>
+        <v>-14.753668725399665</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.460231678706723</v>
+        <v>-11.72325462616261</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.872529521405717</v>
+        <v>-9.317158788495945</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.02359752304403</v>
+        <v>-7.407259870196312</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.761726958805081</v>
+        <v>-5.891872563823513</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.966479421228196</v>
+        <v>-4.690343655340493</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.542279935815467</v>
+        <v>-3.7387781478245854</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.4133405388710845</v>
+        <v>-2.98667554437941</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5196493399131756</v>
+        <v>-2.3943078395546187</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.813820082055107</v>
+        <v>-1.9307072504926497</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2586453582735633</v>
+        <v>-1.5721343367077585</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8252269672036334</v>
+        <v>-1.3008099296978903</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.4915431075714303</v>
+        <v>-1.1034138058613658</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2411842797839827</v>
+        <v>-0.9683939790373695</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0616441735434914</v>
+        <v>-0.8813756819077426</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9411298883171285</v>
+        <v>-0.821207274831903</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8636610748055309</v>
+        <v>-0.7638186011802001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8064495773546789</v>
+        <v>-0.6944723797864093</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.7466489166083875</v>
+        <v>-0.613954596670533</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6736821433840644</v>
+        <v>-0.5316490806144125</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5916634289250035</v>
+        <v>-0.45636412421133754</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.5105298533950835</v>
+        <v>-0.39267008750784216</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.43808653748074666</v>
+        <v>-0.3411058743772423</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3777273174327543</v>
+        <v>-0.29948356977896873</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3291159731003549</v>
+        <v>-0.2646081626149831</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.28960914837372287</v>
+        <v>-0.23406814785163238</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.25606862770690964</v>
+        <v>-0.20691054877523204</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22647757445259087</v>
+        <v>-0.18293018278771744</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.20018395463696304</v>
+        <v>-0.16188201588986875</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17702147235836269</v>
+        <v>-0.1433835859510045</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1566946139178859</v>
+        <v>-0.1270846330893327</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.1388160755202595</v>
+        <v>-0.11270523163937526</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12305646786381502</v>
+        <v>-0.1000066189358007</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10914920816803886</v>
+        <v>-0.08878129812004337</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09686421794508625</v>
+        <v>-0.07884963619205523</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08600186771705665</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -968,142 +968,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0666675683122557</v>
+        <v>1.0666686687017783</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0666680956644656</v>
+        <v>1.066669839608685</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0666689314399895</v>
+        <v>1.06667169526554</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0666702560011638</v>
+        <v>1.066674636018376</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0666723551541033</v>
+        <v>1.0666792961316791</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0666756817480825</v>
+        <v>1.0666866802410113</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0666809531921462</v>
+        <v>1.0666983790645157</v>
       </c>
       <c r="H1" t="n">
-        <v>1.066689305727633</v>
+        <v>1.0667169098978044</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0667025382281097</v>
+        <v>1.0667462527838485</v>
       </c>
       <c r="J1" t="n">
-        <v>1.066723496824124</v>
+        <v>1.0667926915496309</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0667566800415076</v>
+        <v>1.0668661248225675</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0668091867028737</v>
+        <v>1.0669820887704677</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0668921901799966</v>
+        <v>1.06716482466041</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0670232044488852</v>
+        <v>1.0674517936704766</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0672294986443318</v>
+        <v>1.0678999624868126</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0675530649561602</v>
+        <v>1.0685935871344292</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.068057379757538</v>
+        <v>1.0696511095944714</v>
       </c>
       <c r="R1" t="n">
-        <v>1.0688353352336957</v>
+        <v>1.071222572409384</v>
       </c>
       <c r="S1" t="n">
-        <v>1.0700148643835885</v>
+        <v>1.073452305470801</v>
       </c>
       <c r="T1" t="n">
-        <v>1.0717506361653182</v>
+        <v>1.0763401078397334</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0741687725365674</v>
+        <v>1.0793405366579913</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0771792579199044</v>
+        <v>1.0803725899654484</v>
       </c>
       <c r="W1" t="n">
-        <v>1.0799576742463346</v>
+        <v>1.07381748521964</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0797195652752258</v>
+        <v>1.0479902038512896</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.0694372146353823</v>
+        <v>0.9865445738603178</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.03567397872053</v>
+        <v>0.8816991618256286</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.9625207098239085</v>
+        <v>0.7504314969231988</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.8478583841026407</v>
+        <v>0.6243233551592989</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.7149651728225094</v>
+        <v>0.5235614222374163</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5944898401086457</v>
+        <v>0.450782389605819</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5015034181270789</v>
+        <v>0.39985597877427126</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.435332814106679</v>
+        <v>0.36277194709075905</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.38889554640634416</v>
+        <v>0.3321302520948812</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3542106112931475</v>
+        <v>0.30239305305908065</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.32423784541311024</v>
+        <v>0.27160699819375306</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2942290537708032</v>
+        <v>0.24157952443954103</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2633694257520254</v>
+        <v>0.21472260849121105</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23401943389530894</v>
+        <v>0.19145311524335756</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20816813176965085</v>
+        <v>0.17091332965690528</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18572254031192958</v>
+        <v>0.15247686911675015</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16578216093364784</v>
+        <v>0.13596243851277984</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1478706225548823</v>
+        <v>0.12122797228677748</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13185017551322595</v>
+        <v>0.10808290295887457</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1175598807923917</v>
+        <v>0.09635543523231997</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10481008979224188</v>
+        <v>0.08589543738425483</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0934361132761209</v>
+        <v>0.0765674428929512</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08329192154267966</v>
@@ -1114,142 +1114,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6118159754728</v>
+        <v>-185.63064059953004</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72089995153505</v>
+        <v>-147.45214256226532</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53092307148427</v>
+        <v>-117.12600882044741</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63535428550136</v>
+        <v>-93.03726218448462</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12262367211024</v>
+        <v>-73.90308908980313</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47432437436298</v>
+        <v>-58.704525113529584</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48435190794055</v>
+        <v>-46.632191436810544</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19467471949224</v>
+        <v>-37.04319253812492</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84431555325472</v>
+        <v>-29.42687979568364</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82882671766258</v>
+        <v>-23.377657851800333</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.668101201927993</v>
+        <v>-18.573385710016417</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.980805546399512</v>
+        <v>-14.758222604696606</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.464073081293858</v>
+        <v>-11.729005637501137</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.877376437004218</v>
+        <v>-9.324434752339776</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.029721095352105</v>
+        <v>-7.416491083353619</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.769479203358495</v>
+        <v>-5.903635464869661</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.9763246186435355</v>
+        <v>-4.7054319979526875</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.554844199183605</v>
+        <v>-3.75832299493726</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.429493452349692</v>
+        <v>-3.0123505021911066</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.540642449231461</v>
+        <v>-2.428673607707481</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.841523540998137</v>
+        <v>-1.9777431940294392</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.295939752841489</v>
+        <v>-1.6378612267167216</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8765816107037814</v>
+        <v>-1.3932887495957176</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5635873834332235</v>
+        <v>-1.2298340686194482</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.3422379381173408</v>
+        <v>-1.1259841526010208</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.1974051645195194</v>
+        <v>-1.0465471893978628</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.104001166565413</v>
+        <v>-0.9566534735310858</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0244859325609896</v>
+        <v>-0.8460762639641586</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9288035037789317</v>
+        <v>-0.7271412797922892</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8143313699714844</v>
+        <v>-0.6152521539105922</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6959859513650255</v>
+        <v>-0.5194090894343861</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.587803102462942</v>
+        <v>-0.44256028640308576</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.496953615872048</v>
+        <v>-0.3835708594118713</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.4251389906327376</v>
+        <v>-0.33819498172127155</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.37032146753704653</v>
+        <v>-0.3005437233355919</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3275910551158528</v>
+        <v>-0.2663698882537969</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.29114045077011474</v>
+        <v>-0.23495773397950284</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.257654819108163</v>
+        <v>-0.2071435533360118</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.2271314416167363</v>
+        <v>-0.1830360237994777</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.2003454310001161</v>
+        <v>-0.1619998574973372</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17713085281081786</v>
+        <v>-0.14347634463765577</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1568091259173883</v>
+        <v>-0.12714741715243247</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.1388996850313848</v>
+        <v>-0.11274953601384685</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12311342879508434</v>
+        <v>-0.10003810384646794</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10918967251223169</v>
+        <v>-0.08880358916508901</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09689292195458779</v>
+        <v>-0.0788654238213299</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08602219188800878</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1419,142 +1419,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9166661633651798</v>
+        <v>0.9166655490704001</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166658689770708</v>
+        <v>0.9166648953442048</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166654023874931</v>
+        <v>0.9166638591797766</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166646628529904</v>
+        <v>0.9166622167733302</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166634906696794</v>
+        <v>0.9166596132410005</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166616326328754</v>
+        <v>0.9166554856808181</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9166586872114361</v>
+        <v>0.9166489408259891</v>
       </c>
       <c r="H1" t="n">
-        <v>0.916654017446914</v>
+        <v>0.9166385601140484</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9166466123857816</v>
+        <v>0.9166220881728454</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9166348661538429</v>
+        <v>0.9165959326644428</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9166162245262948</v>
+        <v>0.9165543554730625</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9165866165447394</v>
+        <v>0.9164881505668848</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9165395330906948</v>
+        <v>0.9163824483392389</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9164645151095078</v>
+        <v>0.9162129876239776</v>
       </c>
       <c r="O1" t="n">
-        <v>0.916344629780245</v>
+        <v>0.915939598386863</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9161521546628164</v>
+        <v>0.9154943998567995</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9158409648881705</v>
+        <v>0.9147596200311288</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9153326088011949</v>
+        <v>0.9135245824705557</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9144898919380734</v>
+        <v>0.9114011383275338</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9130653420097016</v>
+        <v>0.907660892942904</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9106000205648154</v>
+        <v>0.900948419413261</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9062316738968548</v>
+        <v>0.8888861498857928</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8983711018823559</v>
+        <v>0.8678851040635307</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8843101736446561</v>
+        <v>0.8340661349219762</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8602176310955341</v>
+        <v>0.7859851041130259</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8225412930318352</v>
+        <v>0.7269683686115737</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7710118286635472</v>
+        <v>0.6632580301632914</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7101111360825914</v>
+        <v>0.6000222827759735</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6461225039892253</v>
+        <v>0.5402634442829083</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5835891952693651</v>
+        <v>0.485835129905319</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5251074348592877</v>
+        <v>0.43760874481856993</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47231146477934793</v>
+        <v>0.39478833901627236</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.425690435894662</v>
+        <v>0.35502973608545374</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.38395357978258393</v>
+        <v>0.316310583230464</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.34459382254351234</v>
+        <v>0.2791528530775293</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.306118843368511</v>
+        <v>0.2459060908093114</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26977682525329855</v>
+        <v>0.2177175033999528</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2378715253449866</v>
+        <v>0.193699496473106</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.21093920971405955</v>
+        <v>0.1725328933834178</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1877920276605977</v>
+        <v>0.1536022266650413</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16725382993776072</v>
+        <v>0.1367457268086108</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14889084053825644</v>
+        <v>0.12177725867703947</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1325622044768015</v>
+        <v>0.10846837026384747</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11805947874485188</v>
+        <v>0.09662607708518116</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10516069549533608</v>
+        <v>0.08608563211413318</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09368234130242768</v>
+        <v>0.07670120358659475</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08346499602130804</v>
@@ -1565,142 +1565,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.611910224537</v>
+        <v>-185.63078103515656</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72101860117652</v>
+        <v>-147.4523193506471</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53107243674577</v>
+        <v>-117.12623136468459</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63554231367746</v>
+        <v>-93.03754231287175</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.1228603625192</v>
+        <v>-73.90344167431033</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47462230396155</v>
+        <v>-58.704968839003364</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48472688735369</v>
+        <v>-46.63274975053803</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19514660756988</v>
+        <v>-37.04389480773282</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84490925991315</v>
+        <v>-29.427762691909457</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.829573421222456</v>
+        <v>-23.378766939616764</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.669039791466716</v>
+        <v>-18.574777152574317</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.98198425740148</v>
+        <v>-14.75996470995432</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.465551194645005</v>
+        <v>-11.731179606164824</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.87922569710556</v>
+        <v>-9.32713321152641</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.032026050519107</v>
+        <v>-7.419811389676472</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.772334730748879</v>
+        <v>-5.907661457830656</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.979826952624115</v>
+        <v>-4.710191060766613</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.559067771581601</v>
+        <v>-3.7636911889571447</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.434437564298308</v>
+        <v>-3.017849849488911</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.546114706875291</v>
+        <v>-2.4330504450956063</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8468925098189</v>
+        <v>-1.9781295802244183</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2996250745410793</v>
+        <v>-1.6282795530674807</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8750599168973678</v>
+        <v>-1.3627049051461309</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5497108887816675</v>
+        <v>-1.162072834264119</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.303412162354729</v>
+        <v>-1.0073366439643443</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.1169013364486804</v>
+        <v>-0.882023044255016</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9714538865359198</v>
+        <v>-0.7756032726928276</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8519581881901866</v>
+        <v>-0.6829706438333706</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.749580871851757</v>
+        <v>-0.6014605568837174</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6601371803259493</v>
+        <v>-0.5295515361449235</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5812980847756343</v>
+        <v>-0.4669459434516475</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5118621914295634</v>
+        <v>-0.4139595020987463</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4518102155001692</v>
+        <v>-0.36990124170403976</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.4013642657630536</v>
+        <v>-0.3319820737791238</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3593017695082361</v>
+        <v>-0.29676327336706587</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3223932534031111</v>
+        <v>-0.26307783677533164</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2875670468773495</v>
+        <v>-0.23214254717404303</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.254457348803441</v>
+        <v>-0.20505474570549592</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22449916109484572</v>
+        <v>-0.1815959061499414</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19844907594048014</v>
+        <v>-0.16099806708032424</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1758276152581955</v>
+        <v>-0.14276586481927797</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15589624391901308</v>
+        <v>-0.12664356859917358</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13825141542396333</v>
+        <v>-0.1123929632017833</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1226541157122763</v>
+        <v>-0.09978569167723172</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10886461618965791</v>
+        <v>-0.0886248990318826</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09666280821018106</v>
+        <v>-0.07873892419247148</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08585928830025333</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 2.5)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)1000.xlsx
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 2.5)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)1000.xlsx
@@ -66,440 +66,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9166645213231418</v>
+        <v>0.9166659370544565</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166632665335819</v>
+        <v>0.9166655103100818</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166612778371316</v>
+        <v>0.9166648339670975</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166581259932486</v>
+        <v>0.9166637620388962</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166531307266191</v>
+        <v>0.9166620631552009</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166452139365731</v>
+        <v>0.916659370626127</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9166326671070459</v>
+        <v>0.9166551033056894</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9166127828202686</v>
+        <v>0.9166483401855816</v>
       </c>
       <c r="I1" t="n">
-        <v>0.916581271107082</v>
+        <v>0.9166376216815695</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9165313353328446</v>
+        <v>0.916620634798788</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9164522098553786</v>
+        <v>0.9165937144163926</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9163268480902758</v>
+        <v>0.9165510535399767</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9161282726885552</v>
+        <v>0.9164834533003844</v>
       </c>
       <c r="N1" t="n">
-        <v>0.915813826901396</v>
+        <v>0.9163763460123118</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9153161535147395</v>
+        <v>0.9162066724104728</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9145291217640984</v>
+        <v>0.9159379586603869</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.913286080599238</v>
+        <v>0.9155125796672654</v>
       </c>
       <c r="R1" t="n">
-        <v>0.911326769807671</v>
+        <v>0.9148396613951545</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9082482467199601</v>
+        <v>0.9137763159576437</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9034352226677131</v>
+        <v>0.9120989130851463</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8959687038684054</v>
+        <v>0.9094600330746</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8845241609997732</v>
+        <v>0.9053262617925966</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8673008481174707</v>
+        <v>0.898893880202664</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8420811337279843</v>
+        <v>0.8889879632574577</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8065888160622483</v>
+        <v>0.8739733946800762</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7593107176570993</v>
+        <v>0.8517540060427781</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7006827415407582</v>
+        <v>0.82000660583243</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6339572697102749</v>
+        <v>0.7768343440803275</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5647151645586387</v>
+        <v>0.7218712957427573</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.49880072892521843</v>
+        <v>0.657374179585785</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.44003554528793287</v>
+        <v>0.5882941891189847</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.38938525799752566</v>
+        <v>0.5206732446316311</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.34581177764648174</v>
+        <v>0.45921485258122574</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30772794729706243</v>
+        <v>0.4058353456898528</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27395772045796046</v>
+        <v>0.36002049613561066</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24387496699303685</v>
+        <v>0.3202223974705103</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21710731247552184</v>
+        <v>0.28507035473476006</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19331264295562578</v>
+        <v>0.25377414835988016</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.172154584260472</v>
+        <v>0.22591065426950765</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15333221848606365</v>
+        <v>0.20113804849032138</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13658278932816884</v>
+        <v>0.1791141632175659</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1216744155882104</v>
+        <v>0.15952423642574726</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10840189560855129</v>
+        <v>0.14209333538694166</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09658357213665673</v>
+        <v>0.12657963316920937</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08605848105673546</v>
+        <v>0.11276916616904202</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07668387635825814</v>
+        <v>0.1004725639549673</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.0834409183813461</v>
+        <v>0.08952208124009185</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07435226396050189</v>
+        <v>0.07976899831936146</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07108136320250966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63078102482984</v>
+        <v>-318.31057496470396</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.4523193300429</v>
+        <v>-252.8433971108564</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12623132357494</v>
+        <v>-200.84105215055837</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03754223085075</v>
+        <v>-159.53422558645153</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90344151066799</v>
+        <v>-126.7231782764708</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70496851252896</v>
+        <v>-100.66060230243471</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.632749099246666</v>
+        <v>-79.95857045040393</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.043893508585725</v>
+        <v>-63.51462402262832</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.427760100876792</v>
+        <v>-50.453062886152615</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.37876177332478</v>
+        <v>-40.07831123630178</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.57476685552053</v>
+        <v>-31.837875626354315</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.759944199550135</v>
+        <v>-25.292922632354</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.7311387927701</v>
+        <v>-20.094909284389164</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.327052125797751</v>
+        <v>-15.967021705705621</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.419650697302876</v>
+        <v>-12.689433412197404</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.907344273728889</v>
+        <v>-10.087598049566973</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.709568954989109</v>
+        <v>-8.022952770241668</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7624833628242302</v>
+        <v>-6.38553649351058</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.0155426977742383</v>
+        <v>-5.088128617266507</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4287571823307474</v>
+        <v>-4.0615934753857434</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9704699758958164</v>
+        <v>-3.2511777236157826</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.6155072801169328</v>
+        <v>-2.6135544374295714</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3435676245524757</v>
+        <v>-2.1144406293122895</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.1377506260547023</v>
+        <v>-1.726635824705277</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9832245964967155</v>
+        <v>-1.4283432399408207</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8662443505476484</v>
+        <v>-1.201657941969404</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.77397698321391</v>
+        <v>-1.0311763521715454</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6954961853596914</v>
+        <v>-0.902853187658085</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6234607947977633</v>
+        <v>-0.8034920197401074</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5549907437502198</v>
+        <v>-0.721335988777897</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4906390536076061</v>
+        <v>-0.6476430492111885</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.432125981696058</v>
+        <v>-0.5780219788650269</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.38048595537217267</v>
+        <v>-0.5120774790777136</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3355351349520693</v>
+        <v>-0.4513916649961602</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2963636245804748</v>
+        <v>-0.39736382166202944</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.26201753620572554</v>
+        <v>-0.3502069766015342</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.23179356951560037</v>
+        <v>-0.30917493541500785</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20517499016613577</v>
+        <v>-0.2732709929335161</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18172053881076702</v>
+        <v>-0.24170163132627404</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1610368566208923</v>
+        <v>-0.21390204696032683</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1427808793213326</v>
+        <v>-0.18941211663732005</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12665491357032604</v>
+        <v>-0.16782185779121703</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11239979816085051</v>
+        <v>-0.1487711558958226</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09978961543504011</v>
+        <v>-0.1319476440618062</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08862720006221192</v>
+        <v>-0.11707963798432695</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07874026385623044</v>
+        <v>-0.10393038672639199</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08586127993719735</v>
+        <v>-0.09229335710241024</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07628947801536697</v>
+        <v>-0.08198815230821956</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07285700749467623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -517,440 +526,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.916667460771919</v>
+        <v>0.9166669367397516</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166679252154707</v>
+        <v>0.9166670947009766</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166686612738124</v>
+        <v>0.9166673450485892</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166698277595475</v>
+        <v>0.9166677418126234</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166716762935065</v>
+        <v>0.9166683706156387</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166746054664333</v>
+        <v>0.9166693671369487</v>
       </c>
       <c r="G1" t="n">
-        <v>0.916679246496249</v>
+        <v>0.916670946355258</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9166865985255501</v>
+        <v>0.9166734488418732</v>
       </c>
       <c r="I1" t="n">
-        <v>0.916698241898407</v>
+        <v>0.9166774139967786</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9167166732812417</v>
+        <v>0.9166836957841794</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9167458295164855</v>
+        <v>0.9166936453177409</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9167918996251475</v>
+        <v>0.9167093981217562</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9168645660221245</v>
+        <v>0.9167343240965863</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9169788573335697</v>
+        <v>0.9167737273391968</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9171577994920936</v>
+        <v>0.9168359218830081</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9174359079534601</v>
+        <v>0.9169338530257343</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9178629699611407</v>
+        <v>0.917087458126003</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9185057542397761</v>
+        <v>0.9173268883001945</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9194404210896785</v>
+        <v>0.9176963269927608</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9207164396047666</v>
+        <v>0.9182568813162493</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9222460279490983</v>
+        <v>0.9190835150533492</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9235215527453047</v>
+        <v>0.9202421132486066</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9229943142517646</v>
+        <v>0.9217121727781259</v>
       </c>
       <c r="X1" t="n">
-        <v>0.9169699903605015</v>
+        <v>0.9231783797363337</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8983878223949646</v>
+        <v>0.9235471318676544</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8574327508287116</v>
+        <v>0.920009288317627</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7872022873376423</v>
+        <v>0.9067444981490078</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6925851452829117</v>
+        <v>0.8745523205863875</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5908069381573557</v>
+        <v>0.81453208812339</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4996041706725516</v>
+        <v>0.7267765664425813</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4272950337086187</v>
+        <v>0.6251748870241299</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3731638673737557</v>
+        <v>0.528861349120939</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3322517023091656</v>
+        <v>0.4498095229413884</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.29902011593678135</v>
+        <v>0.38990244904231813</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2693422754647727</v>
+        <v>0.34511692041745784</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24142816564180478</v>
+        <v>0.3098229344455477</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21542850219557708</v>
+        <v>0.27925556114011163</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19196672245212523</v>
+        <v>0.25079362174581443</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17113084230410033</v>
+        <v>0.22406010542802307</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15259916873018878</v>
+        <v>0.19968686207273728</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13605939513141088</v>
+        <v>0.1779790805230712</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12129772952234412</v>
+        <v>0.15870032037145682</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.108131166731111</v>
+        <v>0.14150683550901968</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09638932992701336</v>
+        <v>0.1261581477769235</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08591925354155602</v>
+        <v>0.11246597184552458</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07658418570201736</v>
+        <v>0.10025493898015328</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08331359088333239</v>
+        <v>0.08936603980455568</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07426111863615485</v>
+        <v>0.07965722907755661</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.0710013857683391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63028080777698</v>
+        <v>-318.310283247578</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45168960222108</v>
+        <v>-252.84302986236733</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12543855945364</v>
+        <v>-200.84058981532326</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.0365442323476</v>
+        <v>-159.53364354730036</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90218516962554</v>
+        <v>-126.72244554541236</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.703387001821</v>
+        <v>-100.65967987426333</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63075835251071</v>
+        <v>-79.95740923317224</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.041387820221495</v>
+        <v>-63.513162238568675</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42460665008727</v>
+        <v>-50.451222812202566</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.374793856496265</v>
+        <v>-40.07599512574354</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.569775617706014</v>
+        <v>-31.83496062446708</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.753668725399665</v>
+        <v>-25.289254475285656</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.72325462616261</v>
+        <v>-20.090294565137512</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.317158788495945</v>
+        <v>-15.96121853303994</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.407259870196312</v>
+        <v>-12.682140437333363</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.891872563823513</v>
+        <v>-10.078442212177043</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.690343655340493</v>
+        <v>-8.011476958744476</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7387781478245854</v>
+        <v>-6.37119008597329</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.98667554437941</v>
+        <v>-5.070267431873672</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.3943078395546187</v>
+        <v>-4.03950254428216</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9307072504926497</v>
+        <v>-3.224142963914114</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5721343367077585</v>
+        <v>-2.58103079884755</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3008099296978903</v>
+        <v>-2.076395489634656</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.1034138058613658</v>
+        <v>-1.6841747324671152</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9683939790373695</v>
+        <v>-1.3846927036937005</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8813756819077426</v>
+        <v>-1.1633224924785268</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.821207274831903</v>
+        <v>-1.0083306692532972</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7638186011802001</v>
+        <v>-0.9069027301874443</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6944723797864093</v>
+        <v>-0.8403244089826011</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.613954596670533</v>
+        <v>-0.784379557252014</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5316490806144125</v>
+        <v>-0.7197743184746006</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.45636412421133754</v>
+        <v>-0.6422250042628902</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.39267008750784216</v>
+        <v>-0.5593760035583024</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3411058743772423</v>
+        <v>-0.4809451432155217</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.29948356977896873</v>
+        <v>-0.41304621887758913</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2646081626149831</v>
+        <v>-0.35747373778420316</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.23406814785163238</v>
+        <v>-0.3128004335001966</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20691054877523204</v>
+        <v>-0.27595873278617133</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18293018278771744</v>
+        <v>-0.24411132981396938</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16188201588986875</v>
+        <v>-0.2158353305833199</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1433835859510045</v>
+        <v>-0.19078536864866716</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1270846330893327</v>
+        <v>-0.16877428621780075</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11270523163937526</v>
+        <v>-0.14944721083202248</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1000066189358007</v>
+        <v>-0.13243034498027276</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08878129812004337</v>
+        <v>-0.11742293420758859</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07884963619205523</v>
+        <v>-0.10417431319369141</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08600186771705665</v>
+        <v>-0.09246660742341917</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07638924947484806</v>
+        <v>-0.08211113782375509</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07294427271052578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -968,440 +986,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0666686687017783</v>
+        <v>1.066667347556221</v>
       </c>
       <c r="B1" t="n">
-        <v>1.066669839608685</v>
+        <v>1.0666677457958127</v>
       </c>
       <c r="C1" t="n">
-        <v>1.06667169526554</v>
+        <v>1.066668376950825</v>
       </c>
       <c r="D1" t="n">
-        <v>1.066674636018376</v>
+        <v>1.0666693772334472</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0666792961316791</v>
+        <v>1.066670962497552</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0666866802410113</v>
+        <v>1.0666734747783913</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0666983790645157</v>
+        <v>1.0666774559892707</v>
       </c>
       <c r="H1" t="n">
-        <v>1.0667169098978044</v>
+        <v>1.0666837645627267</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0667462527838485</v>
+        <v>1.0666937599119724</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0667926915496309</v>
+        <v>1.0667095937719726</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0668661248225675</v>
+        <v>1.0667346694055784</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0669820887704677</v>
+        <v>1.0667743630209778</v>
       </c>
       <c r="M1" t="n">
-        <v>1.06716482466041</v>
+        <v>1.0668371511308101</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0674517936704766</v>
+        <v>1.0669363570929036</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0678999624868126</v>
+        <v>1.067092818260433</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0685935871344292</v>
+        <v>1.0673388598323275</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0696511095944714</v>
+        <v>1.0677239576872424</v>
       </c>
       <c r="R1" t="n">
-        <v>1.071222572409384</v>
+        <v>1.0683221217405459</v>
       </c>
       <c r="S1" t="n">
-        <v>1.073452305470801</v>
+        <v>1.069239618406886</v>
       </c>
       <c r="T1" t="n">
-        <v>1.0763401078397334</v>
+        <v>1.070617301066668</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0793405366579913</v>
+        <v>1.0726098372316908</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0803725899654484</v>
+        <v>1.0752934713307736</v>
       </c>
       <c r="W1" t="n">
-        <v>1.07381748521964</v>
+        <v>1.0783819293460841</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0479902038512896</v>
+        <v>1.0804866767586299</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9865445738603178</v>
+        <v>1.0774931487914594</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8816991618256286</v>
+        <v>1.0599948022682284</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7504314969231988</v>
+        <v>1.0124666029267277</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6243233551592989</v>
+        <v>0.9219495473713966</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5235614222374163</v>
+        <v>0.7963136333761857</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.450782389605819</v>
+        <v>0.6652006236233128</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.39985597877427126</v>
+        <v>0.5547282883829273</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.36277194709075905</v>
+        <v>0.4728254371892633</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3321302520948812</v>
+        <v>0.41531406844498847</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30239305305908065</v>
+        <v>0.3743834048450214</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27160699819375306</v>
+        <v>0.34228687587187717</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24157952443954103</v>
+        <v>0.3126760363725203</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21472260849121105</v>
+        <v>0.2821960506008407</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19145311524335756</v>
+        <v>0.2515828939684151</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17091332965690528</v>
+        <v>0.22348098934793523</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15247686911675015</v>
+        <v>0.19905618324712956</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13596243851277984</v>
+        <v>0.17768335033299318</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12122797228677748</v>
+        <v>0.15856138603187073</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10808290295887457</v>
+        <v>0.14140160739734142</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09635543523231997</v>
+        <v>0.12607917379945863</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08589543738425483</v>
+        <v>0.11241134012992689</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0765674428929512</v>
+        <v>0.10021670745184007</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08329192154267966</v>
+        <v>0.08933916693830266</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0742458811925868</v>
+        <v>0.07963834371565501</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07098810176300815</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63064059953004</v>
+        <v>-318.3104930635286</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45214256226532</v>
+        <v>-252.84329400679695</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12600882044741</v>
+        <v>-200.8409223570447</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03726218448462</v>
+        <v>-159.53406219968016</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90308908980313</v>
+        <v>-126.7229726118103</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.704525113529584</v>
+        <v>-100.66034344003388</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.632191436810544</v>
+        <v>-79.95824466982346</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04319253812492</v>
+        <v>-63.514214104404864</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42687979568364</v>
+        <v>-50.45254725909163</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.377657851800333</v>
+        <v>-40.07766295698029</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.573385710016417</v>
+        <v>-31.837061200071382</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.758222604696606</v>
+        <v>-25.29190073945503</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.729005637501137</v>
+        <v>-20.093629596490302</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.324434752339776</v>
+        <v>-15.965424230785663</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.416491083353619</v>
+        <v>-12.687449330548102</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.903635464869661</v>
+        <v>-10.085154058987916</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.7054319979526875</v>
+        <v>-8.019983062094285</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.75832299493726</v>
+        <v>-6.382010605693004</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.0123505021911066</v>
+        <v>-5.084111335194649</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.428673607707481</v>
+        <v>-4.057367687819954</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9777431940294392</v>
+        <v>-3.2474869159971065</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.6378612267167216</v>
+        <v>-2.612060910440048</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3932887495957176</v>
+        <v>-2.118534813446538</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.2298340686194482</v>
+        <v>-1.7426869589076606</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.1259841526010208</v>
+        <v>-1.4670505103017533</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0465471893978628</v>
+        <v>-1.2776772532704945</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9566534735310858</v>
+        <v>-1.1567351383678817</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8460762639641586</v>
+        <v>-1.0734692585029926</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7271412797922892</v>
+        <v>-0.9898570870989716</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6152521539105922</v>
+        <v>-0.8856992953836103</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5194090894343861</v>
+        <v>-0.7676982746107519</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.44256028640308576</v>
+        <v>-0.6520200438035294</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3835708594118713</v>
+        <v>-0.5501011183108047</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.33819498172127155</v>
+        <v>-0.4667069953753391</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3005437233355919</v>
+        <v>-0.4019444975534845</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2663698882537969</v>
+        <v>-0.3525460897574915</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.23495773397950284</v>
+        <v>-0.31288991160539226</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2071435533360118</v>
+        <v>-0.27777545405588455</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1830360237994777</v>
+        <v>-0.2453364107336651</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1619998574973372</v>
+        <v>-0.21622118649984792</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14347634463765577</v>
+        <v>-0.19089916162710885</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12714741715243247</v>
+        <v>-0.16889077523744517</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11274953601384685</v>
+        <v>-0.1495515080386929</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.10003810384646794</v>
+        <v>-0.13250192294716384</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08880358916508901</v>
+        <v>-0.11747268129349182</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0788654238213299</v>
+        <v>-0.10420973166827847</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08602219188800878</v>
+        <v>-0.09249169168515009</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07640364380133918</v>
+        <v>-0.08212890266329186</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07295685372103614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -1419,440 +1446,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9166655490704001</v>
+        <v>0.9166662865955827</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9166648953442048</v>
+        <v>0.9166660642886078</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9166638591797766</v>
+        <v>0.9166657119467475</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9166622167733302</v>
+        <v>0.9166651534998022</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9166596132410005</v>
+        <v>0.9166642683639478</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9166554856808181</v>
+        <v>0.9166628653747556</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9166489408259891</v>
+        <v>0.9166606414265545</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9166385601140484</v>
+        <v>0.91665711580157</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9166220881728454</v>
+        <v>0.916651525790686</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9165959326644428</v>
+        <v>0.916642660515682</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9165543554730625</v>
+        <v>0.916628595679069</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9164881505668848</v>
+        <v>0.9166062684672384</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9163824483392389</v>
+        <v>0.9165707920382105</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9162129876239776</v>
+        <v>0.9165143396130305</v>
       </c>
       <c r="O1" t="n">
-        <v>0.915939598386863</v>
+        <v>0.9164243024859983</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9154943998567995</v>
+        <v>0.9162801885688778</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9147596200311288</v>
+        <v>0.9160482584625904</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9135245824705557</v>
+        <v>0.9156719332084547</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9114011383275338</v>
+        <v>0.9150539909919435</v>
       </c>
       <c r="T1" t="n">
-        <v>0.907660892942904</v>
+        <v>0.9140223660408536</v>
       </c>
       <c r="U1" t="n">
-        <v>0.900948419413261</v>
+        <v>0.912263027467124</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8888861498857928</v>
+        <v>0.9091891366293547</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8678851040635307</v>
+        <v>0.9037008334217644</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8340661349219762</v>
+        <v>0.8938142665979584</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7859851041130259</v>
+        <v>0.8763322747571259</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7269683686115737</v>
+        <v>0.8472543565004115</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6632580301632914</v>
+        <v>0.8039289596848775</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6000222827759735</v>
+        <v>0.7480069278541479</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5402634442829083</v>
+        <v>0.6852040539319156</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.485835129905319</v>
+        <v>0.6213765129396818</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.43760874481856993</v>
+        <v>0.5601807366108976</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.39478833901627236</v>
+        <v>0.5037691533375062</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.35502973608545374</v>
+        <v>0.4534146593760455</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.316310583230464</v>
+        <v>0.4089526176323424</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2791528530775293</v>
+        <v>0.3684469545883379</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2459060908093114</v>
+        <v>0.32946787592605625</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2177175033999528</v>
+        <v>0.2915434185601748</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.193699496473106</v>
+        <v>0.25671542828973826</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1725328933834178</v>
+        <v>0.22681675451002678</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1536022266650413</v>
+        <v>0.20153775215825018</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1367457268086108</v>
+        <v>0.1795059342053356</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12177725867703947</v>
+        <v>0.15983759177010745</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10846837026384747</v>
+        <v>0.14228715503007305</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09662607708518116</v>
+        <v>0.12669917761452357</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08608563211413318</v>
+        <v>0.11284644917142979</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07670120358659475</v>
+        <v>0.10052211536323997</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08346499602130804</v>
+        <v>0.08955373105930273</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0743676244828001</v>
+        <v>0.07978920568174526</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07109424875772925</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63078103515656</v>
+        <v>-318.31057496675214</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.4523193506471</v>
+        <v>-252.84339711494295</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12623136468459</v>
+        <v>-200.8410521587121</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03754231287175</v>
+        <v>-159.5342256027201</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90344167431033</v>
+        <v>-126.72317830893013</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.704968839003364</v>
+        <v>-100.66060236719723</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63274975053803</v>
+        <v>-79.95857057961467</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04389480773282</v>
+        <v>-63.514624280414026</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.427762691909457</v>
+        <v>-50.45306340042804</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.378766939616764</v>
+        <v>-40.07831226218005</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.574777152574317</v>
+        <v>-31.837877672504103</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.75996470995432</v>
+        <v>-25.292926712599854</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.731179606164824</v>
+        <v>-20.094917418092095</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.32713321152641</v>
+        <v>-15.967037911013689</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.419811389676472</v>
+        <v>-12.689465671630591</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.907661457830656</v>
+        <v>-10.087662180828934</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.710191060766613</v>
+        <v>-8.023079989173127</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7636911889571447</v>
+        <v>-6.385788002633644</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.017849849488911</v>
+        <v>-5.088623155398304</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4330504450956063</v>
+        <v>-4.062557497823317</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9781295802244183</v>
+        <v>-3.253031086296487</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.6282795530674807</v>
+        <v>-2.6170392415700294</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3627049051461309</v>
+        <v>-2.120762621889503</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.162072834264119</v>
+        <v>-1.737463494796077</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.0073366439643443</v>
+        <v>-1.4452637442036163</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.882023044255016</v>
+        <v>-1.2245867813013627</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7756032726928276</v>
+        <v>-1.0562216163267664</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6829706438333706</v>
+        <v>-0.9223678339730479</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6014605568837174</v>
+        <v>-0.8102715224590024</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5295515361449235</v>
+        <v>-0.7132936677888996</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4669459434516475</v>
+        <v>-0.6282069069398976</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4139595020987463</v>
+        <v>-0.5531092929799684</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.36990124170403976</v>
+        <v>-0.4872894611231915</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3319820737791238</v>
+        <v>-0.4310023498370172</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.29676327336706587</v>
+        <v>-0.3840977359987124</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.26307783677533164</v>
+        <v>-0.3444969748188253</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.23214254717404303</v>
+        <v>-0.30864581604409247</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20505474570549592</v>
+        <v>-0.27437421252225286</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1815959061499414</v>
+        <v>-0.24231837188715058</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16099806708032424</v>
+        <v>-0.2138767450407818</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14276586481927797</v>
+        <v>-0.18926053321750483</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12664356859917358</v>
+        <v>-0.1677601292093466</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.1123929632017833</v>
+        <v>-0.14875297417732442</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09978569167723172</v>
+        <v>-0.13193498451793373</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0886248990318826</v>
+        <v>-0.11707134786200012</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07873892419247148</v>
+        <v>-0.10392566725673898</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08585928830025333</v>
+        <v>-0.09229059289353872</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0762883195673007</v>
+        <v>-0.081986539739525</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07285607047073647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
